--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1271.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1271.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.087522134937022</v>
+        <v>1.161638975143433</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.15468692779541</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>10.32306385040283</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.552456378936768</v>
       </c>
       <c r="E1">
-        <v>1.062762897156454</v>
+        <v>1.263031125068665</v>
       </c>
     </row>
   </sheetData>
